--- a/mato_grosso.xlsx
+++ b/mato_grosso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/171b4091be173a04/Notebooks/Python/Corona virus/SARIMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="605" documentId="8_{CF7ED41D-202D-437F-B046-EF68DA31F406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2BBD616-1D05-4997-A28E-1AF6381C99A2}"/>
+  <xr:revisionPtr revIDLastSave="675" documentId="8_{CF7ED41D-202D-437F-B046-EF68DA31F406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF54D455-3F98-4EFB-891E-32C92EF5D070}"/>
   <bookViews>
-    <workbookView xWindow="17370" yWindow="-15825" windowWidth="12495" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aglomerados" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,7 +623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -919,17 +919,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
@@ -938,10 +938,9 @@
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43942</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>43943</v>
       </c>
@@ -1058,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>43944</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>43945</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>43946</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>43947</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>43948</v>
       </c>
@@ -1263,7 +1262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>43949</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>43950</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>43951</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>43952</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>43953</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>43954</v>
       </c>
@@ -1509,7 +1508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>43955</v>
       </c>
@@ -1550,7 +1549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>43956</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>43957</v>
       </c>
@@ -1632,7 +1631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>43958</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>43959</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>43960</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>43961</v>
       </c>
@@ -1796,7 +1795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>43962</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>43963</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>43964</v>
       </c>
@@ -1919,7 +1918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>43965</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>43966</v>
       </c>
@@ -2001,7 +2000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>43967</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>43968</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>43969</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>43970</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>43971</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>43972</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>43973</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>43974</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>43975</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>43976</v>
       </c>
@@ -2409,6 +2408,211 @@
       </c>
       <c r="M36">
         <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B37">
+        <v>2218</v>
+      </c>
+      <c r="C37">
+        <v>1744</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>113</v>
+      </c>
+      <c r="F37">
+        <v>566</v>
+      </c>
+      <c r="G37">
+        <v>43</v>
+      </c>
+      <c r="H37">
+        <v>262</v>
+      </c>
+      <c r="I37">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J37">
+        <v>874</v>
+      </c>
+      <c r="K37">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L37">
+        <v>49</v>
+      </c>
+      <c r="M37">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B38">
+        <v>2305</v>
+      </c>
+      <c r="C38">
+        <v>1909</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38">
+        <v>121</v>
+      </c>
+      <c r="F38">
+        <v>601</v>
+      </c>
+      <c r="G38">
+        <v>47</v>
+      </c>
+      <c r="H38">
+        <v>258</v>
+      </c>
+      <c r="I38">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="J38">
+        <v>864</v>
+      </c>
+      <c r="K38">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L38">
+        <v>54</v>
+      </c>
+      <c r="M38">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B39">
+        <v>2422</v>
+      </c>
+      <c r="C39">
+        <v>2085</v>
+      </c>
+      <c r="D39">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>134</v>
+      </c>
+      <c r="F39">
+        <v>624</v>
+      </c>
+      <c r="G39">
+        <v>54</v>
+      </c>
+      <c r="H39">
+        <v>256</v>
+      </c>
+      <c r="I39">
+        <v>0.152</v>
+      </c>
+      <c r="J39">
+        <v>864</v>
+      </c>
+      <c r="K39">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L39">
+        <v>65</v>
+      </c>
+      <c r="M39">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B40">
+        <v>2543</v>
+      </c>
+      <c r="C40">
+        <v>2262</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>145</v>
+      </c>
+      <c r="F40">
+        <v>658</v>
+      </c>
+      <c r="G40">
+        <v>57</v>
+      </c>
+      <c r="H40">
+        <v>253</v>
+      </c>
+      <c r="I40">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="J40">
+        <v>857</v>
+      </c>
+      <c r="K40">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="L40">
+        <v>72</v>
+      </c>
+      <c r="M40">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B41">
+        <v>2592</v>
+      </c>
+      <c r="C41">
+        <v>2413</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>147</v>
+      </c>
+      <c r="F41">
+        <v>675</v>
+      </c>
+      <c r="G41">
+        <v>58</v>
+      </c>
+      <c r="H41">
+        <v>250</v>
+      </c>
+      <c r="I41">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J41">
+        <v>856</v>
+      </c>
+      <c r="K41">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="L41">
+        <v>71</v>
+      </c>
+      <c r="M41">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/mato_grosso.xlsx
+++ b/mato_grosso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/171b4091be173a04/Notebooks/Python/Corona virus/SARIMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="675" documentId="8_{CF7ED41D-202D-437F-B046-EF68DA31F406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF54D455-3F98-4EFB-891E-32C92EF5D070}"/>
+  <xr:revisionPtr revIDLastSave="690" documentId="8_{CF7ED41D-202D-437F-B046-EF68DA31F406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA0CB8DD-4A87-4615-AD8A-E4FA841C1FE7}"/>
   <bookViews>
     <workbookView xWindow="9435" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2615,6 +2615,47 @@
         <v>76</v>
       </c>
     </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B42">
+        <v>2611</v>
+      </c>
+      <c r="C42">
+        <v>2485</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>159</v>
+      </c>
+      <c r="F42">
+        <v>696</v>
+      </c>
+      <c r="G42">
+        <v>63</v>
+      </c>
+      <c r="H42">
+        <v>248</v>
+      </c>
+      <c r="I42">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="J42">
+        <v>847</v>
+      </c>
+      <c r="K42">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L42">
+        <v>81</v>
+      </c>
+      <c r="M42">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/mato_grosso.xlsx
+++ b/mato_grosso.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/171b4091be173a04/Notebooks/Python/Corona virus/SARIMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="690" documentId="8_{CF7ED41D-202D-437F-B046-EF68DA31F406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA0CB8DD-4A87-4615-AD8A-E4FA841C1FE7}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="114_{DC8B5370-4BB5-4034-A45F-0C9D8A8FA5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4C6FCC5E-8D8C-4913-A5C0-790528404AE9}"/>
   <bookViews>
     <workbookView xWindow="9435" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2656,6 +2656,785 @@
         <v>78</v>
       </c>
     </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B43">
+        <v>2711</v>
+      </c>
+      <c r="C43">
+        <v>2636</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>164</v>
+      </c>
+      <c r="F43">
+        <v>749</v>
+      </c>
+      <c r="G43">
+        <v>67</v>
+      </c>
+      <c r="H43">
+        <v>176</v>
+      </c>
+      <c r="I43">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J43">
+        <v>761</v>
+      </c>
+      <c r="K43">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L43">
+        <v>83</v>
+      </c>
+      <c r="M43">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B44">
+        <v>2862</v>
+      </c>
+      <c r="C44">
+        <v>2817</v>
+      </c>
+      <c r="D44">
+        <v>46</v>
+      </c>
+      <c r="E44">
+        <v>188</v>
+      </c>
+      <c r="F44">
+        <v>799</v>
+      </c>
+      <c r="G44">
+        <v>75</v>
+      </c>
+      <c r="H44">
+        <v>162</v>
+      </c>
+      <c r="I44">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="J44">
+        <v>772</v>
+      </c>
+      <c r="K44">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L44">
+        <v>86</v>
+      </c>
+      <c r="M44">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B45">
+        <v>2916</v>
+      </c>
+      <c r="C45">
+        <v>3029</v>
+      </c>
+      <c r="D45">
+        <v>46</v>
+      </c>
+      <c r="E45">
+        <v>177</v>
+      </c>
+      <c r="F45">
+        <v>929</v>
+      </c>
+      <c r="G45">
+        <v>79</v>
+      </c>
+      <c r="H45">
+        <v>161</v>
+      </c>
+      <c r="I45">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="J45">
+        <v>744</v>
+      </c>
+      <c r="K45">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L45">
+        <v>77</v>
+      </c>
+      <c r="M45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B46">
+        <v>3153</v>
+      </c>
+      <c r="C46">
+        <v>3388</v>
+      </c>
+      <c r="D46">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>221</v>
+      </c>
+      <c r="F46">
+        <v>1065</v>
+      </c>
+      <c r="G46">
+        <v>84</v>
+      </c>
+      <c r="H46">
+        <v>150</v>
+      </c>
+      <c r="I46">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J46">
+        <v>733</v>
+      </c>
+      <c r="K46">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="L46">
+        <v>97</v>
+      </c>
+      <c r="M46">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B47">
+        <v>3353</v>
+      </c>
+      <c r="C47">
+        <v>3568</v>
+      </c>
+      <c r="D47">
+        <v>53</v>
+      </c>
+      <c r="E47">
+        <v>232</v>
+      </c>
+      <c r="F47">
+        <v>1145</v>
+      </c>
+      <c r="G47">
+        <v>91</v>
+      </c>
+      <c r="H47">
+        <v>258</v>
+      </c>
+      <c r="I47">
+        <v>0.376</v>
+      </c>
+      <c r="J47">
+        <v>816</v>
+      </c>
+      <c r="K47">
+        <v>0.113</v>
+      </c>
+      <c r="L47">
+        <v>118</v>
+      </c>
+      <c r="M47">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A48" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B48">
+        <v>3466</v>
+      </c>
+      <c r="C48">
+        <v>3788</v>
+      </c>
+      <c r="D48">
+        <v>53</v>
+      </c>
+      <c r="E48">
+        <v>238</v>
+      </c>
+      <c r="F48">
+        <v>1203</v>
+      </c>
+      <c r="G48">
+        <v>101</v>
+      </c>
+      <c r="H48">
+        <v>258</v>
+      </c>
+      <c r="I48">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="J48">
+        <v>816</v>
+      </c>
+      <c r="K48">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="L48">
+        <v>121</v>
+      </c>
+      <c r="M48">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B49">
+        <v>3517</v>
+      </c>
+      <c r="C49">
+        <v>4033</v>
+      </c>
+      <c r="D49">
+        <v>56</v>
+      </c>
+      <c r="E49">
+        <v>240</v>
+      </c>
+      <c r="F49">
+        <v>1243</v>
+      </c>
+      <c r="G49">
+        <v>113</v>
+      </c>
+      <c r="H49">
+        <v>228</v>
+      </c>
+      <c r="I49">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J49">
+        <v>816</v>
+      </c>
+      <c r="K49">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L49">
+        <v>118</v>
+      </c>
+      <c r="M49">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B50">
+        <v>3633</v>
+      </c>
+      <c r="C50">
+        <v>4243</v>
+      </c>
+      <c r="D50">
+        <v>59</v>
+      </c>
+      <c r="E50">
+        <v>227</v>
+      </c>
+      <c r="F50">
+        <v>1454</v>
+      </c>
+      <c r="G50">
+        <v>126</v>
+      </c>
+      <c r="H50">
+        <v>228</v>
+      </c>
+      <c r="I50">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="J50">
+        <v>816</v>
+      </c>
+      <c r="K50">
+        <v>0.115</v>
+      </c>
+      <c r="L50">
+        <v>102</v>
+      </c>
+      <c r="M50">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B51">
+        <v>3848</v>
+      </c>
+      <c r="C51">
+        <v>4504</v>
+      </c>
+      <c r="D51">
+        <v>65</v>
+      </c>
+      <c r="E51">
+        <v>246</v>
+      </c>
+      <c r="F51">
+        <v>1597</v>
+      </c>
+      <c r="G51">
+        <v>140</v>
+      </c>
+      <c r="H51">
+        <v>228</v>
+      </c>
+      <c r="I51">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J51">
+        <v>816</v>
+      </c>
+      <c r="K51">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="L51">
+        <v>117</v>
+      </c>
+      <c r="M51">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B52">
+        <v>4170</v>
+      </c>
+      <c r="C52">
+        <v>4762</v>
+      </c>
+      <c r="D52">
+        <v>66</v>
+      </c>
+      <c r="E52">
+        <v>251</v>
+      </c>
+      <c r="F52">
+        <v>1697</v>
+      </c>
+      <c r="G52">
+        <v>153</v>
+      </c>
+      <c r="H52">
+        <v>228</v>
+      </c>
+      <c r="I52">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="J52">
+        <v>816</v>
+      </c>
+      <c r="K52">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="L52">
+        <v>118</v>
+      </c>
+      <c r="M52">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B53">
+        <v>4291</v>
+      </c>
+      <c r="C53">
+        <v>5086</v>
+      </c>
+      <c r="D53">
+        <v>67</v>
+      </c>
+      <c r="E53">
+        <v>244</v>
+      </c>
+      <c r="F53">
+        <v>1792</v>
+      </c>
+      <c r="G53">
+        <v>163</v>
+      </c>
+      <c r="H53">
+        <v>233</v>
+      </c>
+      <c r="I53">
+        <v>0.747</v>
+      </c>
+      <c r="J53">
+        <v>816</v>
+      </c>
+      <c r="K53">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="L53">
+        <v>108</v>
+      </c>
+      <c r="M53">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B54">
+        <v>4497</v>
+      </c>
+      <c r="C54">
+        <v>5390</v>
+      </c>
+      <c r="D54">
+        <v>68</v>
+      </c>
+      <c r="E54">
+        <v>237</v>
+      </c>
+      <c r="F54">
+        <v>1912</v>
+      </c>
+      <c r="G54">
+        <v>181</v>
+      </c>
+      <c r="H54">
+        <v>233</v>
+      </c>
+      <c r="I54">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J54">
+        <v>816</v>
+      </c>
+      <c r="K54">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L54">
+        <v>107</v>
+      </c>
+      <c r="M54">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B55">
+        <v>4625</v>
+      </c>
+      <c r="C55">
+        <v>5739</v>
+      </c>
+      <c r="D55">
+        <v>68</v>
+      </c>
+      <c r="E55">
+        <v>245</v>
+      </c>
+      <c r="F55">
+        <v>2042</v>
+      </c>
+      <c r="G55">
+        <v>199</v>
+      </c>
+      <c r="H55">
+        <v>233</v>
+      </c>
+      <c r="I55">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="J55">
+        <v>816</v>
+      </c>
+      <c r="K55">
+        <v>0.187</v>
+      </c>
+      <c r="L55">
+        <v>118</v>
+      </c>
+      <c r="M55">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B56">
+        <v>4781</v>
+      </c>
+      <c r="C56">
+        <v>6108</v>
+      </c>
+      <c r="D56">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>270</v>
+      </c>
+      <c r="F56">
+        <v>2117</v>
+      </c>
+      <c r="G56">
+        <v>213</v>
+      </c>
+      <c r="H56">
+        <v>233</v>
+      </c>
+      <c r="I56">
+        <v>0.746</v>
+      </c>
+      <c r="J56">
+        <v>816</v>
+      </c>
+      <c r="K56">
+        <v>0.217</v>
+      </c>
+      <c r="L56">
+        <v>140</v>
+      </c>
+      <c r="M56">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B57">
+        <v>5102</v>
+      </c>
+      <c r="C57">
+        <v>6390</v>
+      </c>
+      <c r="D57">
+        <v>71</v>
+      </c>
+      <c r="E57">
+        <v>296</v>
+      </c>
+      <c r="F57">
+        <v>2386</v>
+      </c>
+      <c r="G57">
+        <v>223</v>
+      </c>
+      <c r="H57">
+        <v>233</v>
+      </c>
+      <c r="I57">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="J57">
+        <v>816</v>
+      </c>
+      <c r="K57">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="L57">
+        <v>145</v>
+      </c>
+      <c r="M57">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B58">
+        <v>5391</v>
+      </c>
+      <c r="C58">
+        <v>6877</v>
+      </c>
+      <c r="D58">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>310</v>
+      </c>
+      <c r="F58">
+        <v>2401</v>
+      </c>
+      <c r="G58">
+        <v>250</v>
+      </c>
+      <c r="H58">
+        <v>243</v>
+      </c>
+      <c r="I58">
+        <v>0.74</v>
+      </c>
+      <c r="J58">
+        <v>816</v>
+      </c>
+      <c r="K58">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L58">
+        <v>144</v>
+      </c>
+      <c r="M58">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B59">
+        <v>5712</v>
+      </c>
+      <c r="C59">
+        <v>7361</v>
+      </c>
+      <c r="D59">
+        <v>77</v>
+      </c>
+      <c r="E59">
+        <v>346</v>
+      </c>
+      <c r="F59">
+        <v>2618</v>
+      </c>
+      <c r="G59">
+        <v>272</v>
+      </c>
+      <c r="H59">
+        <v>248</v>
+      </c>
+      <c r="I59">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="J59">
+        <v>816</v>
+      </c>
+      <c r="K59">
+        <v>0.21</v>
+      </c>
+      <c r="L59">
+        <v>166</v>
+      </c>
+      <c r="M59">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B60">
+        <v>6174</v>
+      </c>
+      <c r="C60">
+        <v>8166</v>
+      </c>
+      <c r="D60">
+        <v>80</v>
+      </c>
+      <c r="E60">
+        <v>367</v>
+      </c>
+      <c r="F60">
+        <v>2766</v>
+      </c>
+      <c r="G60">
+        <v>295</v>
+      </c>
+      <c r="H60">
+        <v>255</v>
+      </c>
+      <c r="I60">
+        <v>0.8</v>
+      </c>
+      <c r="J60">
+        <v>816</v>
+      </c>
+      <c r="K60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L60">
+        <v>185</v>
+      </c>
+      <c r="M60">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B61">
+        <v>6461</v>
+      </c>
+      <c r="C61">
+        <v>8765</v>
+      </c>
+      <c r="D61">
+        <v>84</v>
+      </c>
+      <c r="E61">
+        <v>399</v>
+      </c>
+      <c r="F61">
+        <v>3010</v>
+      </c>
+      <c r="G61">
+        <v>322</v>
+      </c>
+      <c r="H61">
+        <v>256</v>
+      </c>
+      <c r="I61">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="J61">
+        <v>816</v>
+      </c>
+      <c r="K61">
+        <v>0.218</v>
+      </c>
+      <c r="L61">
+        <v>219</v>
+      </c>
+      <c r="M61">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
